--- a/zindi_challenge/EF.xlsx
+++ b/zindi_challenge/EF.xlsx
@@ -5,7 +5,7 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Worksheet1" sheetId="1" r:id="Re316881fcb454d43"/>
+    <sheet name="Worksheet1" sheetId="1" r:id="Rade3730eb5414fd2"/>
   </sheets>
 </workbook>
 </file>
